--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,79 +49,88 @@
     <t>poor</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>thin</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>ripped</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>un</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>paint</t>
@@ -130,124 +139,127 @@
     <t>pay</t>
   </si>
   <si>
-    <t>un</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>expected</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>much</t>
@@ -256,103 +268,106 @@
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>fantastic</t>
+    <t>enjoyable</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
+    <t>cute</t>
   </si>
   <si>
     <t>easy</t>
@@ -361,16 +376,13 @@
     <t>nice</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
+    <t>grandson</t>
+  </si>
+  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>year</t>
@@ -737,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -824,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -848,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -877,16 +889,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -898,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -906,38 +918,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7887323943661971</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="L5">
         <v>56</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>56</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -956,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -974,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -998,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1006,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7142857142857143</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1024,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1048,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1056,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6881720430107527</v>
+        <v>0.703125</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1098,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1106,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6571428571428571</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1124,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>0.75</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1156,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6551724137931034</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K10">
-        <v>0.6792452830188679</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1198,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1206,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6407766990291263</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C11">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1224,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K11">
-        <v>0.5868005738880918</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L11">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>288</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1274,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K12">
-        <v>0.5507246376811594</v>
+        <v>0.569583931133429</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1298,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6283783783783784</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C13">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D13">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1324,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K13">
-        <v>0.516597510373444</v>
+        <v>0.5352697095435685</v>
       </c>
       <c r="L13">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M13">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1374,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14">
-        <v>0.4762295081967213</v>
+        <v>0.469672131147541</v>
       </c>
       <c r="L14">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M14">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6134453781512605</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1424,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K15">
-        <v>0.4528301886792453</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1448,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1456,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6052631578947368</v>
+        <v>0.5625</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1474,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16">
-        <v>0.3883792048929663</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L16">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M16">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1498,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,16 +1539,16 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17">
-        <v>0.3333333333333333</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1548,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1556,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5428571428571428</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1574,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K18">
-        <v>0.3333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1598,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1606,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5416666666666666</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1624,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K19">
-        <v>0.3253012048192771</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L19">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1648,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,16 +1689,16 @@
         <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20">
-        <v>0.2622950819672131</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1698,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1727,16 +1739,16 @@
         <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K21">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1748,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1756,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5043478260869565</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C22">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1774,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K22">
-        <v>0.25</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1798,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1806,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4736842105263158</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C23">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1824,31 +1836,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K23">
-        <v>0.2307692307692308</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1856,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4666666666666667</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1874,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K24">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1898,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1906,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.462962962962963</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1924,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K25">
-        <v>0.1935483870967742</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1948,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1956,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4296875</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1977,16 +1989,16 @@
         <v>73</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K26">
-        <v>0.1927710843373494</v>
+        <v>0.192</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1998,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2006,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4265402843601896</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C27">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2024,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K27">
-        <v>0.1904761904761905</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2048,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>102</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2056,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4216867469879518</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2074,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K28">
-        <v>0.1649122807017544</v>
+        <v>0.1817383669885865</v>
       </c>
       <c r="L28">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M28">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N28">
         <v>0.99</v>
@@ -2098,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2106,13 +2118,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4173228346456693</v>
+        <v>0.3838862559241706</v>
       </c>
       <c r="C29">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D29">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2124,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K29">
-        <v>0.1197771587743733</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2148,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>316</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2156,13 +2168,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2174,31 +2186,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K30">
-        <v>0.0935672514619883</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L30">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1395</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2206,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3968253968253968</v>
+        <v>0.375</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2224,31 +2236,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K31">
-        <v>0.09090909090909091</v>
+        <v>0.09870129870129871</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>340</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2256,13 +2268,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3809523809523809</v>
+        <v>0.34375</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2274,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K32">
-        <v>0.07931034482758621</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2298,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>267</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2306,13 +2318,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3720930232558139</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2324,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K33">
         <v>0.07782101167315175</v>
@@ -2356,13 +2368,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2374,31 +2386,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K34">
-        <v>0.07739938080495357</v>
+        <v>0.07754010695187166</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>298</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2406,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.359375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2424,31 +2436,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K35">
-        <v>0.05066666666666667</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>712</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2456,13 +2468,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3148148148148148</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2474,31 +2486,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K36">
-        <v>0.03846153846153846</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N36">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>375</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2506,13 +2518,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3061224489795918</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2524,31 +2536,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K37">
-        <v>0.0321285140562249</v>
+        <v>0.05095541401273886</v>
       </c>
       <c r="L37">
         <v>16</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>482</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2556,13 +2568,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2985074626865671</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2574,31 +2586,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K38">
-        <v>0.02844950213371266</v>
+        <v>0.048</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>683</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2606,13 +2618,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.293103448275862</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2624,7 +2636,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>41</v>
+        <v>142</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39">
+        <v>0.03018108651911469</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>18</v>
+      </c>
+      <c r="N39">
+        <v>0.83</v>
+      </c>
+      <c r="O39">
+        <v>0.17</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2632,13 +2668,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2921348314606741</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2650,7 +2686,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K40">
+        <v>0.02136752136752137</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>0.83</v>
+      </c>
+      <c r="O40">
+        <v>0.17</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2658,13 +2718,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2905982905982906</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2676,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2684,13 +2744,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2821782178217822</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C42">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2702,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>145</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2710,13 +2770,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2577319587628866</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2728,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2736,13 +2796,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2391304347826087</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C44">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D44">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2754,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>210</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2762,25 +2822,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2205882352941176</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E45">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2788,13 +2848,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2087912087912088</v>
+        <v>0.22</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2806,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2814,13 +2874,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2040816326530612</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2832,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2840,13 +2900,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1962025316455696</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C48">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2858,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>254</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2866,25 +2926,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.19</v>
+        <v>0.1988472622478386</v>
       </c>
       <c r="C49">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>162</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2892,13 +2952,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1869436201780415</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C50">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2910,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>548</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2918,13 +2978,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1839080459770115</v>
+        <v>0.1884272997032641</v>
       </c>
       <c r="C51">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="D51">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2936,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>284</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2944,13 +3004,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1785714285714286</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2962,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2970,13 +3030,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1775700934579439</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C53">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D53">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2988,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>176</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2996,13 +3056,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1772151898734177</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C54">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D54">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3014,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3022,13 +3082,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1694915254237288</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3040,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3048,25 +3108,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1682242990654206</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E56">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>89</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3074,13 +3134,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1518324607329843</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="C57">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3092,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3100,13 +3160,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1497797356828194</v>
+        <v>0.1171875</v>
       </c>
       <c r="C58">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3118,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>386</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3126,25 +3186,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1464968152866242</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59">
         <v>23</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3152,25 +3212,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1371428571428571</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3178,25 +3238,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1307692307692308</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>113</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3204,25 +3264,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1278195488721804</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="C62">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>232</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3230,25 +3290,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1093117408906883</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="C63">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E63">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3256,13 +3316,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.09836065573770492</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3274,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3282,25 +3342,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.096045197740113</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C65">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>320</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3308,25 +3368,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09375</v>
+        <v>0.1015037593984962</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>174</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3334,25 +3394,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0855614973262032</v>
+        <v>0.09619686800894854</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E67">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>171</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3360,25 +3420,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08247422680412371</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E68">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>178</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3386,25 +3446,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07933884297520662</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C69">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>557</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3412,25 +3472,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.07885304659498207</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E70">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F70">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3438,25 +3498,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07589285714285714</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C71">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D71">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E71">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>414</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3464,25 +3524,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07397260273972603</v>
+        <v>0.0695364238410596</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D72">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>338</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3490,25 +3550,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.06744186046511629</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="C73">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E73">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>401</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3516,25 +3576,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.05504587155963303</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F74">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>618</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3542,13 +3602,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.05082592121982211</v>
+        <v>0.05597964376590331</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D75">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E75">
         <v>0.15</v>
@@ -3560,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3568,25 +3628,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.05079365079365079</v>
+        <v>0.04941176470588235</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D76">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="F76">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>299</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3594,25 +3654,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04694835680751173</v>
+        <v>0.04439252336448598</v>
       </c>
       <c r="C77">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E77">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="F77">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3620,25 +3680,77 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03211991434689507</v>
+        <v>0.04134762633996937</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D78">
+        <v>29</v>
+      </c>
+      <c r="E78">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F78">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.03611738148984198</v>
+      </c>
+      <c r="C79">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>0.2</v>
+      </c>
+      <c r="F79">
+        <v>0.8</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.03379721669980119</v>
+      </c>
+      <c r="C80">
         <v>17</v>
       </c>
-      <c r="E78">
-        <v>0.12</v>
-      </c>
-      <c r="F78">
-        <v>0.88</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>452</v>
+      <c r="D80">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>0.06</v>
+      </c>
+      <c r="F80">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
